--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3843.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3843.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226496677561345</v>
+        <v>3.323241949081421</v>
       </c>
       <c r="B1">
-        <v>1.976131594157616</v>
+        <v>6.749982833862305</v>
       </c>
       <c r="C1">
-        <v>4.24180575377102</v>
+        <v>6.724996566772461</v>
       </c>
       <c r="D1">
-        <v>4.105015857518691</v>
+        <v>6.755799770355225</v>
       </c>
       <c r="E1">
-        <v>1.193709955340358</v>
+        <v>3.457194089889526</v>
       </c>
     </row>
   </sheetData>
